--- a/Tasks Management.xlsx
+++ b/Tasks Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCPM\Project\Test Document\KCPM-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F0A72-5D14-4A6D-BFB3-F0A19A4EDAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2554F4-5B95-4BCA-B1E7-CE1A24915A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,10 +96,6 @@
     <t>Nguyễn Thái Sơn</t>
   </si>
   <si>
-    <t>Thiết kế 107 testcases cho các chức năng từ F011 đến F019.
-Gồm 4 test types: GUI &amp;Usability, Functional, Security, Compatibility.</t>
-  </si>
-  <si>
     <t>Thực thi các testcases cho các chức năng từ F011 đến F019</t>
   </si>
   <si>
@@ -125,6 +121,10 @@
   </si>
   <si>
     <t>0.5h</t>
+  </si>
+  <si>
+    <t>Thiết kế 108 testcases cho các chức năng từ F011 đến F019.
+Gồm 5 test types: GUI &amp;Usability, Functional, Security, Compatibility và Performance</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,10 +721,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -738,10 +738,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -755,10 +755,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -772,10 +772,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -789,10 +789,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,10 +806,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
